--- a/rhla_analysis/rhla1_6_uniform_result/k7.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k7.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.003028148565106867</v>
+        <v>0.003464611894365986</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08580942510239546</v>
+        <v>0.08598427945295559</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2190963341858483</v>
+        <v>0.1663272233536999</v>
       </c>
       <c r="D2" t="n">
-        <v>28.33725732322752</v>
+        <v>24.81786764998983</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.001864794172809177</v>
+        <v>0.002183477094703337</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09459635819730777</v>
+        <v>0.09550277857592077</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2271952259164535</v>
+        <v>0.1693822131704005</v>
       </c>
       <c r="D3" t="n">
-        <v>50.72750632570094</v>
+        <v>43.73885066511149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.001761757223504943</v>
+        <v>0.001447328770909722</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08377783952238363</v>
+        <v>0.08340620920438897</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2297527706734868</v>
+        <v>0.1734555329260014</v>
       </c>
       <c r="D4" t="n">
-        <v>47.55356663485738</v>
+        <v>57.62768686755519</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.002567667185525074</v>
+        <v>0.002452920797514736</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08593480047651922</v>
+        <v>0.08638988778006867</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2259164535379369</v>
+        <v>0.1670061099796334</v>
       </c>
       <c r="D5" t="n">
-        <v>33.46804483110844</v>
+        <v>35.219191694896</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.002829762202343679</v>
+        <v>0.002812851216184435</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0860578359362511</v>
+        <v>0.08624445802471012</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2233589087809037</v>
+        <v>0.1629327902240326</v>
       </c>
       <c r="D6" t="n">
-        <v>30.41168472212113</v>
+        <v>30.66086735355261</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.004076878711129509</v>
+        <v>0.004220127561054722</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08568942958884411</v>
+        <v>0.08616360052436207</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2310315430520034</v>
+        <v>0.1717583163611677</v>
       </c>
       <c r="D7" t="n">
-        <v>21.01839070044437</v>
+        <v>20.41729764747384</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.002150867025880786</v>
+        <v>0.0022947451106553</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0855363086947022</v>
+        <v>0.08674793186748052</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2271952259164535</v>
+        <v>0.1754921928038018</v>
       </c>
       <c r="D8" t="n">
-        <v>39.76829235162729</v>
+        <v>37.80286161834692</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.002076408047351353</v>
+        <v>0.002104588694202015</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0858769386204228</v>
+        <v>0.08631962683132778</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2097186700767263</v>
+        <v>0.159877800407332</v>
       </c>
       <c r="D9" t="n">
-        <v>41.35841157520395</v>
+        <v>41.01496271890651</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.002719673663802784</v>
+        <v>0.002750977354508894</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08723715796245003</v>
+        <v>0.08708314543468083</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2254901960784314</v>
+        <v>0.1670061099796334</v>
       </c>
       <c r="D10" t="n">
-        <v>32.07633295256117</v>
+        <v>31.65534797731077</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.001422822006080176</v>
+        <v>0.001518341538679095</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08632423376187245</v>
+        <v>0.08606065264060359</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2229326513213981</v>
+        <v>0.1663272233536999</v>
       </c>
       <c r="D11" t="n">
-        <v>60.67114044692957</v>
+        <v>56.68069432880917</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_uniform_result/k7.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k7.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.003464611894365986</v>
+        <v>0.00346461189436598</v>
       </c>
       <c r="B2" t="n">
         <v>0.08598427945295559</v>
@@ -466,26 +466,26 @@
         <v>0.1663272233536999</v>
       </c>
       <c r="D2" t="n">
-        <v>24.81786764998983</v>
+        <v>24.81786764998987</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.002183477094703337</v>
+        <v>0.002183477094703316</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09550277857592077</v>
+        <v>0.09550277857592078</v>
       </c>
       <c r="C3" t="n">
         <v>0.1693822131704005</v>
       </c>
       <c r="D3" t="n">
-        <v>43.73885066511149</v>
+        <v>43.73885066511193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.001447328770909722</v>
+        <v>0.001447328770909716</v>
       </c>
       <c r="B4" t="n">
         <v>0.08340620920438897</v>
@@ -494,12 +494,12 @@
         <v>0.1734555329260014</v>
       </c>
       <c r="D4" t="n">
-        <v>57.62768686755519</v>
+        <v>57.62768686755544</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.002452920797514736</v>
+        <v>0.002452920797514739</v>
       </c>
       <c r="B5" t="n">
         <v>0.08638988778006867</v>
@@ -508,12 +508,12 @@
         <v>0.1670061099796334</v>
       </c>
       <c r="D5" t="n">
-        <v>35.219191694896</v>
+        <v>35.21919169489597</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.002812851216184435</v>
+        <v>0.002812851216184439</v>
       </c>
       <c r="B6" t="n">
         <v>0.08624445802471012</v>
@@ -522,12 +522,12 @@
         <v>0.1629327902240326</v>
       </c>
       <c r="D6" t="n">
-        <v>30.66086735355261</v>
+        <v>30.66086735355258</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.004220127561054722</v>
+        <v>0.004220127561054695</v>
       </c>
       <c r="B7" t="n">
         <v>0.08616360052436207</v>
@@ -536,12 +536,12 @@
         <v>0.1717583163611677</v>
       </c>
       <c r="D7" t="n">
-        <v>20.41729764747384</v>
+        <v>20.41729764747397</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0022947451106553</v>
+        <v>0.002294745110655292</v>
       </c>
       <c r="B8" t="n">
         <v>0.08674793186748052</v>
@@ -550,26 +550,26 @@
         <v>0.1754921928038018</v>
       </c>
       <c r="D8" t="n">
-        <v>37.80286161834692</v>
+        <v>37.80286161834707</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.002104588694202015</v>
+        <v>0.002104588694202006</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08631962683132778</v>
+        <v>0.08631962683132779</v>
       </c>
       <c r="C9" t="n">
         <v>0.159877800407332</v>
       </c>
       <c r="D9" t="n">
-        <v>41.01496271890651</v>
+        <v>41.01496271890669</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.002750977354508894</v>
+        <v>0.002750977354508897</v>
       </c>
       <c r="B10" t="n">
         <v>0.08708314543468083</v>
@@ -578,12 +578,12 @@
         <v>0.1670061099796334</v>
       </c>
       <c r="D10" t="n">
-        <v>31.65534797731077</v>
+        <v>31.65534797731073</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.001518341538679095</v>
+        <v>0.001518341538679092</v>
       </c>
       <c r="B11" t="n">
         <v>0.08606065264060359</v>
@@ -592,7 +592,7 @@
         <v>0.1663272233536999</v>
       </c>
       <c r="D11" t="n">
-        <v>56.68069432880917</v>
+        <v>56.6806943288093</v>
       </c>
     </row>
   </sheetData>
